--- a/data_sms_spam.xlsx
+++ b/data_sms_spam.xlsx
@@ -3819,14 +3819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1084" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="A576" sqref="A576:C586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="116.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_sms_spam.xlsx
+++ b/data_sms_spam.xlsx
@@ -3819,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="A576" sqref="A576:C586"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
